--- a/biology/Botanique/Brunelliaceae/Brunelliaceae.xlsx
+++ b/biology/Botanique/Brunelliaceae/Brunelliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Brunelliacées regroupe des plantes dicotylédones ; elle comprend une soixantaine d'espèces du genre Brunellia.
 Ce sont des grands arbres à feuilles persistantes d'Amérique tropicale.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Brunellia nommé en hommage au botaniste italien Gabriel Brunelli, professeur à l'université de Bologne et auteur d'une flore du Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Brunellia nommé en hommage au botaniste italien Gabriel Brunelli, professeur à l'université de Bologne et auteur d'une flore du Pérou.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'existait pas dans la classification phylogénétique APG (1998)[2] où ce genre était inclus dans les Cunoniacées.
-Elle fut acceptée par la classification phylogénétique APG III (2009)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'existait pas dans la classification phylogénétique APG (1998) où ce genre était inclus dans les Cunoniacées.
+Elle fut acceptée par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 mai 2010)[4], NCBI  (13 mai 2010)[5], DELTA Angio           (13 mai 2010)[6] et ITIS      (13 mai 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 mai 2010), NCBI  (13 mai 2010), DELTA Angio           (13 mai 2010) et ITIS      (13 mai 2010) :
 genre Brunellia (en)  Ruiz &amp; Pavón</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (13 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (13 mai 2010) :
 genre Brunellia (en)  Ruiz &amp; Pav. (1794)
 Brunellia acostae  Cuatrec. (1954)
 Brunellia acutangula  Bonpl. (1808)
